--- a/TestData/libros.xlsx
+++ b/TestData/libros.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatti\OneDrive\Documents\GitHub\QACertification\IntroPrograma\ProyectoFinal\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola Rojas\Desktop\IntroProgra\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1250C-E32C-40B4-B4B0-A612BEC3E7C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3165" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="3165" windowWidth="21600" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>idLibro</t>
   </si>
@@ -118,14 +117,34 @@
   </si>
   <si>
     <t>Herman Melville</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si </t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,21 +454,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +481,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,8 +498,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,8 +515,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,8 +532,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,8 +549,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -531,8 +566,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,8 +583,11 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -559,8 +600,11 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -573,8 +617,11 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -587,8 +634,11 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -601,9 +651,12 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/libros.xlsx
+++ b/TestData/libros.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
